--- a/PythonScripts/payment_plan_1.xlsx
+++ b/PythonScripts/payment_plan_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soheil izadi\Desktop\PythonCreating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soheil izadi\Desktop\TelegramBot\TelegramBot\TelegramBot\PythonScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D310F-6487-4A6C-8EB0-E21BAD953BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAD2442-6721-4E50-98D9-5FD371D8672C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1% PP" sheetId="3" r:id="rId1"/>
@@ -258,13 +258,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tw Cen MT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -275,6 +268,14 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="21"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -565,22 +566,19 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -592,10 +590,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -607,9 +605,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,25 +617,31 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F1C609-B3D0-401B-A2BD-FABD6A9C1BBB}">
   <dimension ref="A4:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,23 +1051,23 @@
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1074,31 +1075,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="50"/>
-      <c r="D9" s="41">
+      <c r="D9" s="39">
         <f>SUM(D11/80)*100</f>
         <v>1500000</v>
       </c>
-      <c r="E9" s="42"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="50"/>
-      <c r="D10" s="43">
+      <c r="D10" s="41">
         <v>220213</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="44">
+      <c r="D11" s="42">
         <v>1200000</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1133,21 +1134,21 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="15" t="s">
         <v>2</v>
       </c>
@@ -1162,10 +1163,10 @@
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="3">
         <v>0.1</v>
       </c>
@@ -1181,10 +1182,10 @@
       <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="3">
         <v>0.1</v>
       </c>
@@ -1201,10 +1202,10 @@
       <c r="A19" s="6">
         <v>3</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="7">
         <v>0.01</v>
       </c>
@@ -1221,10 +1222,10 @@
       <c r="A20" s="6">
         <v>4</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="7">
         <v>0.01</v>
       </c>
@@ -1241,10 +1242,10 @@
       <c r="A21" s="6">
         <v>5</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="7">
         <v>0.01</v>
       </c>
@@ -1261,10 +1262,10 @@
       <c r="A22" s="9">
         <v>6</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="7">
         <v>0.01</v>
       </c>
@@ -1281,10 +1282,10 @@
       <c r="A23" s="6">
         <v>7</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="48"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="7">
         <v>0.01</v>
       </c>
@@ -1301,10 +1302,10 @@
       <c r="A24" s="6">
         <v>8</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="48"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="7">
         <v>0.01</v>
       </c>
@@ -1321,10 +1322,10 @@
       <c r="A25" s="6">
         <v>9</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="7">
         <v>0.01</v>
       </c>
@@ -1341,10 +1342,10 @@
       <c r="A26" s="9">
         <v>10</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="7">
         <v>0.01</v>
       </c>
@@ -1361,10 +1362,10 @@
       <c r="A27" s="6">
         <v>11</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="7">
         <v>0.01</v>
       </c>
@@ -1381,10 +1382,10 @@
       <c r="A28" s="6">
         <v>12</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="48"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="7">
         <v>0.01</v>
       </c>
@@ -1401,10 +1402,10 @@
       <c r="A29" s="6">
         <v>13</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="48"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="7">
         <v>0.01</v>
       </c>
@@ -1421,10 +1422,10 @@
       <c r="A30" s="9">
         <v>14</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="48"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="7">
         <v>0.01</v>
       </c>
@@ -1441,10 +1442,10 @@
       <c r="A31" s="6">
         <v>15</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="48"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="7">
         <v>0.01</v>
       </c>
@@ -1461,10 +1462,10 @@
       <c r="A32" s="6">
         <v>16</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="48"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="7">
         <v>0.01</v>
       </c>
@@ -1481,10 +1482,10 @@
       <c r="A33" s="6">
         <v>17</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="48"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="7">
         <v>0.01</v>
       </c>
@@ -1501,10 +1502,10 @@
       <c r="A34" s="9">
         <v>18</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="48"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="7">
         <v>0.01</v>
       </c>
@@ -1521,10 +1522,10 @@
       <c r="A35" s="6">
         <v>19</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="48"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="7">
         <v>0.01</v>
       </c>
@@ -1541,10 +1542,10 @@
       <c r="A36" s="6">
         <v>20</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="48"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="7">
         <v>0.01</v>
       </c>
@@ -1561,10 +1562,10 @@
       <c r="A37" s="6">
         <v>21</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="48"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="7">
         <v>0.01</v>
       </c>
@@ -1581,10 +1582,10 @@
       <c r="A38" s="9">
         <v>22</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="48"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="7">
         <v>0.01</v>
       </c>
@@ -1601,10 +1602,10 @@
       <c r="A39" s="6">
         <v>23</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="48"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="7">
         <v>0.01</v>
       </c>
@@ -1621,10 +1622,10 @@
       <c r="A40" s="6">
         <v>24</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="48"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="7">
         <v>0.01</v>
       </c>
@@ -1641,10 +1642,10 @@
       <c r="A41" s="6">
         <v>25</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="48"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="7">
         <v>0.01</v>
       </c>
@@ -1661,10 +1662,10 @@
       <c r="A42" s="9">
         <v>26</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="48"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="7">
         <v>0.01</v>
       </c>
@@ -1681,10 +1682,10 @@
       <c r="A43" s="6">
         <v>27</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="48"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="7">
         <v>0.01</v>
       </c>
@@ -1701,10 +1702,10 @@
       <c r="A44" s="6">
         <v>28</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="48"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="7">
         <v>0.01</v>
       </c>
@@ -1721,10 +1722,10 @@
       <c r="A45" s="6">
         <v>33</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="46"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="7">
         <v>0.24</v>
       </c>
@@ -1741,10 +1742,10 @@
       <c r="A46" s="6">
         <v>34</v>
       </c>
-      <c r="B46" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="48"/>
+      <c r="B46" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="27"/>
       <c r="D46" s="7">
         <v>0.01</v>
       </c>
@@ -1761,10 +1762,10 @@
       <c r="A47" s="6">
         <v>35</v>
       </c>
-      <c r="B47" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="48"/>
+      <c r="B47" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="27"/>
       <c r="D47" s="7">
         <v>0.01</v>
       </c>
@@ -1781,10 +1782,10 @@
       <c r="A48" s="9">
         <v>36</v>
       </c>
-      <c r="B48" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="48"/>
+      <c r="B48" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="27"/>
       <c r="D48" s="7">
         <v>0.01</v>
       </c>
@@ -1801,10 +1802,10 @@
       <c r="A49" s="6">
         <v>37</v>
       </c>
-      <c r="B49" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="48"/>
+      <c r="B49" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="27"/>
       <c r="D49" s="7">
         <v>0.01</v>
       </c>
@@ -1821,10 +1822,10 @@
       <c r="A50" s="6">
         <v>38</v>
       </c>
-      <c r="B50" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="48"/>
+      <c r="B50" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="27"/>
       <c r="D50" s="7">
         <v>0.01</v>
       </c>
@@ -1841,10 +1842,10 @@
       <c r="A51" s="6">
         <v>39</v>
       </c>
-      <c r="B51" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="48"/>
+      <c r="B51" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="27"/>
       <c r="D51" s="7">
         <v>0.01</v>
       </c>
@@ -1861,10 +1862,10 @@
       <c r="A52" s="9">
         <v>40</v>
       </c>
-      <c r="B52" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="48"/>
+      <c r="B52" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="27"/>
       <c r="D52" s="7">
         <v>0.01</v>
       </c>
@@ -1881,10 +1882,10 @@
       <c r="A53" s="6">
         <v>41</v>
       </c>
-      <c r="B53" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="48"/>
+      <c r="B53" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="27"/>
       <c r="D53" s="7">
         <v>0.01</v>
       </c>
@@ -1901,10 +1902,10 @@
       <c r="A54" s="6">
         <v>42</v>
       </c>
-      <c r="B54" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="48"/>
+      <c r="B54" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="27"/>
       <c r="D54" s="7">
         <v>0.01</v>
       </c>
@@ -1921,10 +1922,10 @@
       <c r="A55" s="6">
         <v>43</v>
       </c>
-      <c r="B55" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="48"/>
+      <c r="B55" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="27"/>
       <c r="D55" s="7">
         <v>0.01</v>
       </c>
@@ -1941,10 +1942,10 @@
       <c r="A56" s="9">
         <v>44</v>
       </c>
-      <c r="B56" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="48"/>
+      <c r="B56" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="27"/>
       <c r="D56" s="7">
         <v>0.01</v>
       </c>
@@ -1961,10 +1962,10 @@
       <c r="A57" s="6">
         <v>45</v>
       </c>
-      <c r="B57" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="48"/>
+      <c r="B57" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="27"/>
       <c r="D57" s="7">
         <v>0.01</v>
       </c>
@@ -1981,10 +1982,10 @@
       <c r="A58" s="6">
         <v>46</v>
       </c>
-      <c r="B58" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="48"/>
+      <c r="B58" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="27"/>
       <c r="D58" s="7">
         <v>0.01</v>
       </c>
@@ -2001,10 +2002,10 @@
       <c r="A59" s="6">
         <v>47</v>
       </c>
-      <c r="B59" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="48"/>
+      <c r="B59" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="27"/>
       <c r="D59" s="7">
         <v>0.01</v>
       </c>
@@ -2021,10 +2022,10 @@
       <c r="A60" s="9">
         <v>48</v>
       </c>
-      <c r="B60" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="48"/>
+      <c r="B60" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="27"/>
       <c r="D60" s="7">
         <v>0.01</v>
       </c>
@@ -2041,10 +2042,10 @@
       <c r="A61" s="6">
         <v>49</v>
       </c>
-      <c r="B61" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="48"/>
+      <c r="B61" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="27"/>
       <c r="D61" s="7">
         <v>0.01</v>
       </c>
@@ -2061,10 +2062,10 @@
       <c r="A62" s="6">
         <v>50</v>
       </c>
-      <c r="B62" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="48"/>
+      <c r="B62" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="27"/>
       <c r="D62" s="7">
         <v>0.01</v>
       </c>
@@ -2081,10 +2082,10 @@
       <c r="A63" s="6">
         <v>51</v>
       </c>
-      <c r="B63" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="48"/>
+      <c r="B63" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="27"/>
       <c r="D63" s="7">
         <v>0.01</v>
       </c>
@@ -2101,10 +2102,10 @@
       <c r="A64" s="9">
         <v>52</v>
       </c>
-      <c r="B64" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="48"/>
+      <c r="B64" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="27"/>
       <c r="D64" s="7">
         <v>0.01</v>
       </c>
@@ -2121,10 +2122,10 @@
       <c r="A65" s="6">
         <v>53</v>
       </c>
-      <c r="B65" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="48"/>
+      <c r="B65" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="27"/>
       <c r="D65" s="7">
         <v>0.01</v>
       </c>
@@ -2141,10 +2142,10 @@
       <c r="A66" s="6">
         <v>54</v>
       </c>
-      <c r="B66" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="48"/>
+      <c r="B66" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="27"/>
       <c r="D66" s="7">
         <v>0.01</v>
       </c>
@@ -2161,10 +2162,10 @@
       <c r="A67" s="6">
         <v>55</v>
       </c>
-      <c r="B67" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="48"/>
+      <c r="B67" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="27"/>
       <c r="D67" s="7">
         <v>0.01</v>
       </c>
@@ -2181,10 +2182,10 @@
       <c r="A68" s="9">
         <v>56</v>
       </c>
-      <c r="B68" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="48"/>
+      <c r="B68" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="27"/>
       <c r="D68" s="7">
         <v>0.01</v>
       </c>
@@ -2201,10 +2202,10 @@
       <c r="A69" s="6">
         <v>57</v>
       </c>
-      <c r="B69" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="48"/>
+      <c r="B69" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="27"/>
       <c r="D69" s="7">
         <v>0.01</v>
       </c>
@@ -2221,10 +2222,10 @@
       <c r="A70" s="6">
         <v>58</v>
       </c>
-      <c r="B70" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="48"/>
+      <c r="B70" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="27"/>
       <c r="D70" s="7">
         <v>0.01</v>
       </c>
@@ -2241,10 +2242,10 @@
       <c r="A71" s="6">
         <v>59</v>
       </c>
-      <c r="B71" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="48"/>
+      <c r="B71" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="27"/>
       <c r="D71" s="7">
         <v>0.01</v>
       </c>
@@ -2261,10 +2262,10 @@
       <c r="A72" s="9">
         <v>60</v>
       </c>
-      <c r="B72" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="48"/>
+      <c r="B72" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="27"/>
       <c r="D72" s="7">
         <v>0.01</v>
       </c>
@@ -2281,10 +2282,10 @@
       <c r="A73" s="6">
         <v>61</v>
       </c>
-      <c r="B73" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="48"/>
+      <c r="B73" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="27"/>
       <c r="D73" s="7">
         <v>0.01</v>
       </c>
@@ -2301,10 +2302,10 @@
       <c r="A74" s="6">
         <v>62</v>
       </c>
-      <c r="B74" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="48"/>
+      <c r="B74" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="27"/>
       <c r="D74" s="7">
         <v>0.01</v>
       </c>
@@ -2321,10 +2322,10 @@
       <c r="A75" s="6">
         <v>63</v>
       </c>
-      <c r="B75" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="48"/>
+      <c r="B75" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="27"/>
       <c r="D75" s="7">
         <v>0.01</v>
       </c>
@@ -2338,68 +2339,68 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="33"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="10"/>
       <c r="D76" s="12">
         <f>SUM(D17:D75)</f>
         <v>1.0000000000000004</v>
       </c>
-      <c r="E76" s="34">
+      <c r="E76" s="33">
         <f>SUM(E17:E75)</f>
         <v>0</v>
       </c>
-      <c r="F76" s="35"/>
+      <c r="F76" s="34"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="40"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="38"/>
     </row>
     <row r="79" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36" t="s">
+      <c r="A79" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="36"/>
+      <c r="B79" s="35"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="37">
+      <c r="D79" s="36">
         <f>E76</f>
         <v>0</v>
       </c>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
     </row>
     <row r="80" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="36" t="s">
+      <c r="A80" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B80" s="36"/>
+      <c r="B80" s="35"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="37">
+      <c r="D80" s="36">
         <f>D79*4%</f>
         <v>0</v>
       </c>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
     </row>
     <row r="81" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="36" t="s">
+      <c r="A81" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="36"/>
+      <c r="B81" s="35"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="37">
+      <c r="D81" s="36">
         <v>4200</v>
       </c>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
     </row>
     <row r="82" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
@@ -2540,33 +2541,95 @@
       <c r="F115" s="19"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="31" t="s">
+      <c r="A116" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="31"/>
-      <c r="B117" s="31"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="31"/>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
+      <c r="A118" s="30"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="C5:E7"/>
+    <mergeCell ref="A116:F118"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -2583,68 +2646,6 @@
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="C5:E7"/>
-    <mergeCell ref="A116:F118"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/PythonScripts/payment_plan_1.xlsx
+++ b/PythonScripts/payment_plan_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soheil izadi\Desktop\TelegramBot\TelegramBot\TelegramBot\PythonScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAD2442-6721-4E50-98D9-5FD371D8672C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747AC2D8-E140-4B68-8C3C-09B82097C31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <numFmt numFmtId="165" formatCode="_-[$AED]\ * #,##0.00_-;\-[$AED]\ * #,##0.00_-;_-[$AED]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-[$AED]\ * #,##0_-;\-[$AED]\ * #,##0_-;_-[$AED]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,14 +222,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,11 +266,37 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
       <sz val="21"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
     </font>
   </fonts>
   <fills count="7">
@@ -494,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,7 +526,7 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -517,13 +535,10 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -536,9 +551,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -560,64 +572,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -638,10 +623,46 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F1C609-B3D0-401B-A2BD-FABD6A9C1BBB}">
   <dimension ref="A4:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:C41"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,123 +1071,123 @@
   <sheetData>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="43" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="39">
+      <c r="C9" s="39"/>
+      <c r="D9" s="27">
         <f>SUM(D11/80)*100</f>
         <v>1500000</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="41">
+      <c r="C10" s="39"/>
+      <c r="D10" s="29">
         <v>220213</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="42">
+      <c r="C11" s="39"/>
+      <c r="D11" s="30">
         <v>1200000</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="8"/>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="3">
         <v>0.1</v>
       </c>
@@ -1178,14 +1199,14 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="3">
         <v>0.1</v>
       </c>
@@ -1198,14 +1219,14 @@
         <v>45894</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>3</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="7">
         <v>0.01</v>
       </c>
@@ -1218,14 +1239,14 @@
         <v>45925</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>4</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="7">
         <v>0.01</v>
       </c>
@@ -1238,14 +1259,14 @@
         <v>45955</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>5</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="7">
         <v>0.01</v>
       </c>
@@ -1258,14 +1279,14 @@
         <v>45986</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+    <row r="22" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>6</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="7">
         <v>0.01</v>
       </c>
@@ -1278,14 +1299,14 @@
         <v>46016</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>7</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="7">
         <v>0.01</v>
       </c>
@@ -1298,14 +1319,14 @@
         <v>46047</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>8</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="7">
         <v>0.01</v>
       </c>
@@ -1318,14 +1339,14 @@
         <v>46078</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>9</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="7">
         <v>0.01</v>
       </c>
@@ -1338,14 +1359,14 @@
         <v>46106</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+    <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>10</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="7">
         <v>0.01</v>
       </c>
@@ -1358,14 +1379,14 @@
         <v>46137</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>11</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="7">
         <v>0.01</v>
       </c>
@@ -1378,14 +1399,14 @@
         <v>46167</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>12</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="7">
         <v>0.01</v>
       </c>
@@ -1398,14 +1419,14 @@
         <v>46198</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>13</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="7">
         <v>0.01</v>
       </c>
@@ -1418,14 +1439,14 @@
         <v>46228</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+    <row r="30" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>14</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="7">
         <v>0.01</v>
       </c>
@@ -1438,14 +1459,14 @@
         <v>46259</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>15</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="7">
         <v>0.01</v>
       </c>
@@ -1458,14 +1479,14 @@
         <v>46290</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>16</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="7">
         <v>0.01</v>
       </c>
@@ -1478,14 +1499,14 @@
         <v>46320</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>17</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="27"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="7">
         <v>0.01</v>
       </c>
@@ -1498,14 +1519,14 @@
         <v>46351</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+    <row r="34" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>18</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="7">
         <v>0.01</v>
       </c>
@@ -1518,14 +1539,14 @@
         <v>46381</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>19</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="7">
         <v>0.01</v>
       </c>
@@ -1538,14 +1559,14 @@
         <v>46412</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>20</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="27"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="7">
         <v>0.01</v>
       </c>
@@ -1558,14 +1579,14 @@
         <v>46443</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>21</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="7">
         <v>0.01</v>
       </c>
@@ -1578,14 +1599,14 @@
         <v>46471</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+    <row r="38" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>22</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="7">
         <v>0.01</v>
       </c>
@@ -1598,14 +1619,14 @@
         <v>46502</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>23</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="7">
         <v>0.01</v>
       </c>
@@ -1618,14 +1639,14 @@
         <v>46532</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>24</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="7">
         <v>0.01</v>
       </c>
@@ -1638,14 +1659,14 @@
         <v>46563</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>25</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="7">
         <v>0.01</v>
       </c>
@@ -1658,14 +1679,14 @@
         <v>46593</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+    <row r="42" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>26</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="7">
         <v>0.01</v>
       </c>
@@ -1678,14 +1699,14 @@
         <v>46624</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>27</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="7">
         <v>0.01</v>
       </c>
@@ -1698,14 +1719,14 @@
         <v>46655</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>28</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="27"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="7">
         <v>0.01</v>
       </c>
@@ -1718,14 +1739,14 @@
         <v>46685</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>33</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="29"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="7">
         <v>0.24</v>
       </c>
@@ -1738,14 +1759,14 @@
         <v>46716</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>34</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="27"/>
+      <c r="B46" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="47"/>
       <c r="D46" s="7">
         <v>0.01</v>
       </c>
@@ -1758,14 +1779,14 @@
         <v>46746</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>35</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="27"/>
+      <c r="B47" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="47"/>
       <c r="D47" s="7">
         <v>0.01</v>
       </c>
@@ -1778,14 +1799,14 @@
         <v>46777</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+    <row r="48" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>36</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="27"/>
+      <c r="B48" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="47"/>
       <c r="D48" s="7">
         <v>0.01</v>
       </c>
@@ -1798,14 +1819,14 @@
         <v>46808</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>37</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="27"/>
+      <c r="B49" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="47"/>
       <c r="D49" s="7">
         <v>0.01</v>
       </c>
@@ -1818,14 +1839,14 @@
         <v>46837</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>38</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="27"/>
+      <c r="B50" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="47"/>
       <c r="D50" s="7">
         <v>0.01</v>
       </c>
@@ -1838,14 +1859,14 @@
         <v>46868</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>39</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="27"/>
+      <c r="B51" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="47"/>
       <c r="D51" s="7">
         <v>0.01</v>
       </c>
@@ -1858,14 +1879,14 @@
         <v>46898</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+    <row r="52" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>40</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="27"/>
+      <c r="B52" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="47"/>
       <c r="D52" s="7">
         <v>0.01</v>
       </c>
@@ -1878,14 +1899,14 @@
         <v>46929</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>41</v>
       </c>
-      <c r="B53" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="27"/>
+      <c r="B53" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="47"/>
       <c r="D53" s="7">
         <v>0.01</v>
       </c>
@@ -1898,14 +1919,14 @@
         <v>46959</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>42</v>
       </c>
-      <c r="B54" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="27"/>
+      <c r="B54" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="47"/>
       <c r="D54" s="7">
         <v>0.01</v>
       </c>
@@ -1918,14 +1939,14 @@
         <v>46990</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>43</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="27"/>
+      <c r="B55" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="47"/>
       <c r="D55" s="7">
         <v>0.01</v>
       </c>
@@ -1938,14 +1959,14 @@
         <v>47021</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+    <row r="56" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
         <v>44</v>
       </c>
-      <c r="B56" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="27"/>
+      <c r="B56" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="47"/>
       <c r="D56" s="7">
         <v>0.01</v>
       </c>
@@ -1958,14 +1979,14 @@
         <v>47051</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>45</v>
       </c>
-      <c r="B57" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="27"/>
+      <c r="B57" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="47"/>
       <c r="D57" s="7">
         <v>0.01</v>
       </c>
@@ -1978,14 +1999,14 @@
         <v>47082</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>46</v>
       </c>
-      <c r="B58" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="27"/>
+      <c r="B58" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="47"/>
       <c r="D58" s="7">
         <v>0.01</v>
       </c>
@@ -1998,14 +2019,14 @@
         <v>47112</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>47</v>
       </c>
-      <c r="B59" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="27"/>
+      <c r="B59" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="47"/>
       <c r="D59" s="7">
         <v>0.01</v>
       </c>
@@ -2018,14 +2039,14 @@
         <v>47143</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+    <row r="60" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
         <v>48</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="27"/>
+      <c r="B60" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="47"/>
       <c r="D60" s="7">
         <v>0.01</v>
       </c>
@@ -2038,14 +2059,14 @@
         <v>47174</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>49</v>
       </c>
-      <c r="B61" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="27"/>
+      <c r="B61" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="47"/>
       <c r="D61" s="7">
         <v>0.01</v>
       </c>
@@ -2058,14 +2079,14 @@
         <v>47202</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>50</v>
       </c>
-      <c r="B62" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="27"/>
+      <c r="B62" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="47"/>
       <c r="D62" s="7">
         <v>0.01</v>
       </c>
@@ -2078,14 +2099,14 @@
         <v>47233</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>51</v>
       </c>
-      <c r="B63" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="27"/>
+      <c r="B63" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="47"/>
       <c r="D63" s="7">
         <v>0.01</v>
       </c>
@@ -2098,14 +2119,14 @@
         <v>47263</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
+    <row r="64" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
         <v>52</v>
       </c>
-      <c r="B64" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="27"/>
+      <c r="B64" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="47"/>
       <c r="D64" s="7">
         <v>0.01</v>
       </c>
@@ -2118,14 +2139,14 @@
         <v>47294</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>53</v>
       </c>
-      <c r="B65" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="27"/>
+      <c r="B65" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="47"/>
       <c r="D65" s="7">
         <v>0.01</v>
       </c>
@@ -2138,14 +2159,14 @@
         <v>47324</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>54</v>
       </c>
-      <c r="B66" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="27"/>
+      <c r="B66" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="47"/>
       <c r="D66" s="7">
         <v>0.01</v>
       </c>
@@ -2158,14 +2179,14 @@
         <v>47355</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>55</v>
       </c>
-      <c r="B67" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="27"/>
+      <c r="B67" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="47"/>
       <c r="D67" s="7">
         <v>0.01</v>
       </c>
@@ -2178,14 +2199,14 @@
         <v>47386</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
+    <row r="68" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
         <v>56</v>
       </c>
-      <c r="B68" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="27"/>
+      <c r="B68" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="47"/>
       <c r="D68" s="7">
         <v>0.01</v>
       </c>
@@ -2198,14 +2219,14 @@
         <v>47416</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>57</v>
       </c>
-      <c r="B69" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="27"/>
+      <c r="B69" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="47"/>
       <c r="D69" s="7">
         <v>0.01</v>
       </c>
@@ -2218,14 +2239,14 @@
         <v>47447</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>58</v>
       </c>
-      <c r="B70" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="27"/>
+      <c r="B70" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="47"/>
       <c r="D70" s="7">
         <v>0.01</v>
       </c>
@@ -2238,14 +2259,14 @@
         <v>47477</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>59</v>
       </c>
-      <c r="B71" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="27"/>
+      <c r="B71" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="47"/>
       <c r="D71" s="7">
         <v>0.01</v>
       </c>
@@ -2258,14 +2279,14 @@
         <v>47508</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+    <row r="72" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
         <v>60</v>
       </c>
-      <c r="B72" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="27"/>
+      <c r="B72" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="47"/>
       <c r="D72" s="7">
         <v>0.01</v>
       </c>
@@ -2278,14 +2299,14 @@
         <v>47539</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>61</v>
       </c>
-      <c r="B73" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="27"/>
+      <c r="B73" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="47"/>
       <c r="D73" s="7">
         <v>0.01</v>
       </c>
@@ -2298,14 +2319,14 @@
         <v>47567</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>62</v>
       </c>
-      <c r="B74" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="27"/>
+      <c r="B74" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="47"/>
       <c r="D74" s="7">
         <v>0.01</v>
       </c>
@@ -2318,14 +2339,14 @@
         <v>47598</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>63</v>
       </c>
-      <c r="B75" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="27"/>
+      <c r="B75" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="47"/>
       <c r="D75" s="7">
         <v>0.01</v>
       </c>
@@ -2339,235 +2360,297 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="12">
+      <c r="B76" s="48"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="11">
         <f>SUM(D17:D75)</f>
         <v>1.0000000000000004</v>
       </c>
-      <c r="E76" s="33">
+      <c r="E76" s="24">
         <f>SUM(E17:E75)</f>
         <v>0</v>
       </c>
-      <c r="F76" s="34"/>
+      <c r="F76" s="25"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="38"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="50"/>
     </row>
     <row r="79" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="35" t="s">
+      <c r="A79" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="35"/>
+      <c r="B79" s="51"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="36">
+      <c r="D79" s="26">
         <f>E76</f>
         <v>0</v>
       </c>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
     </row>
     <row r="80" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B80" s="35"/>
+      <c r="B80" s="51"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="36">
+      <c r="D80" s="26">
         <f>D79*4%</f>
         <v>0</v>
       </c>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
     </row>
     <row r="81" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="35"/>
+      <c r="B81" s="51"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="36">
+      <c r="D81" s="26">
         <v>4200</v>
       </c>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
     </row>
     <row r="82" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="16"/>
+      <c r="A82" s="18"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="14"/>
     </row>
     <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="F83" s="17"/>
+      <c r="A83" s="19"/>
+      <c r="F83" s="15"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="F84" s="17"/>
+      <c r="A84" s="19"/>
+      <c r="F84" s="15"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="F85" s="17"/>
+      <c r="A85" s="19"/>
+      <c r="F85" s="15"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="F86" s="17"/>
+      <c r="A86" s="19"/>
+      <c r="F86" s="15"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="F87" s="17"/>
+      <c r="A87" s="19"/>
+      <c r="F87" s="15"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="F88" s="17"/>
+      <c r="A88" s="19"/>
+      <c r="F88" s="15"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
-      <c r="F89" s="17"/>
+      <c r="A89" s="19"/>
+      <c r="F89" s="15"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
-      <c r="F90" s="17"/>
+      <c r="A90" s="19"/>
+      <c r="F90" s="15"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
-      <c r="F91" s="17"/>
+      <c r="A91" s="19"/>
+      <c r="F91" s="15"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
-      <c r="F92" s="17"/>
+      <c r="A92" s="19"/>
+      <c r="F92" s="15"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="21"/>
-      <c r="F93" s="17"/>
+      <c r="A93" s="19"/>
+      <c r="F93" s="15"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
-      <c r="F94" s="17"/>
+      <c r="A94" s="19"/>
+      <c r="F94" s="15"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
-      <c r="F95" s="17"/>
+      <c r="A95" s="19"/>
+      <c r="F95" s="15"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="21"/>
-      <c r="F96" s="17"/>
+      <c r="A96" s="19"/>
+      <c r="F96" s="15"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="F97" s="17"/>
+      <c r="A97" s="19"/>
+      <c r="F97" s="15"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
-      <c r="F98" s="17"/>
+      <c r="A98" s="19"/>
+      <c r="F98" s="15"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
-      <c r="F99" s="17"/>
+      <c r="A99" s="19"/>
+      <c r="F99" s="15"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
-      <c r="F100" s="18"/>
+      <c r="A100" s="19"/>
+      <c r="F100" s="16"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="21"/>
-      <c r="F101" s="17"/>
+      <c r="A101" s="19"/>
+      <c r="F101" s="15"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="21"/>
-      <c r="F102" s="17"/>
+      <c r="A102" s="19"/>
+      <c r="F102" s="15"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="21"/>
-      <c r="F103" s="17"/>
+      <c r="A103" s="19"/>
+      <c r="F103" s="15"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="21"/>
-      <c r="F104" s="17"/>
+      <c r="A104" s="19"/>
+      <c r="F104" s="15"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="21"/>
-      <c r="F105" s="17"/>
+      <c r="A105" s="19"/>
+      <c r="F105" s="15"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="21"/>
-      <c r="F106" s="17"/>
+      <c r="A106" s="19"/>
+      <c r="F106" s="15"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="21"/>
-      <c r="F107" s="17"/>
+      <c r="A107" s="19"/>
+      <c r="F107" s="15"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="21"/>
-      <c r="F108" s="17"/>
+      <c r="A108" s="19"/>
+      <c r="F108" s="15"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="21"/>
-      <c r="F109" s="17"/>
+      <c r="A109" s="19"/>
+      <c r="F109" s="15"/>
     </row>
     <row r="110" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="21"/>
-      <c r="F110" s="17"/>
+      <c r="A110" s="19"/>
+      <c r="F110" s="15"/>
     </row>
     <row r="111" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="21"/>
-      <c r="F111" s="17"/>
+      <c r="A111" s="19"/>
+      <c r="F111" s="15"/>
     </row>
     <row r="112" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="21"/>
-      <c r="F112" s="17"/>
+      <c r="A112" s="19"/>
+      <c r="F112" s="15"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="21"/>
-      <c r="F113" s="17"/>
+      <c r="A113" s="19"/>
+      <c r="F113" s="15"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="21"/>
-      <c r="F114" s="17"/>
+      <c r="A114" s="19"/>
+      <c r="F114" s="15"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="22"/>
-      <c r="F115" s="19"/>
+      <c r="A115" s="20"/>
+      <c r="F115" s="17"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="30" t="s">
+      <c r="A116" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
+      <c r="A117" s="22"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="30"/>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="30"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="C5:E7"/>
     <mergeCell ref="A116:F118"/>
     <mergeCell ref="A15:F15"/>
@@ -2584,68 +2667,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B54:C54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/PythonScripts/payment_plan_1.xlsx
+++ b/PythonScripts/payment_plan_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soheil izadi\Desktop\TelegramBot\TelegramBot\TelegramBot\PythonScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747AC2D8-E140-4B68-8C3C-09B82097C31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65527284-4E3F-4BFE-912D-17D60DAC0FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,13 +186,13 @@
     <t>مساحت کل به مترمربع</t>
   </si>
   <si>
-    <t>4% DLD (سازمان املاک و مستغلات)</t>
-  </si>
-  <si>
     <t>تنظیم قرارداد و امور اداری</t>
   </si>
   <si>
     <t>تخفیف ۲۰ درصد</t>
+  </si>
+  <si>
+    <t>4% DLD    سازمان املاک و مستغلات</t>
   </si>
 </sst>
 </file>
@@ -575,21 +575,84 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -600,69 +663,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F1C609-B3D0-401B-A2BD-FABD6A9C1BBB}">
   <dimension ref="A4:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,75 +1072,75 @@
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21"/>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="21"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="27">
+      <c r="C9" s="28"/>
+      <c r="D9" s="48">
         <f>SUM(D11/80)*100</f>
         <v>1500000</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="29">
+      <c r="B10" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="50">
         <v>220213</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="30">
+      <c r="C11" s="28"/>
+      <c r="D11" s="51">
         <v>1200000</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1148,35 +1148,35 @@
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="42"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1184,10 +1184,10 @@
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="3">
         <v>0.1</v>
       </c>
@@ -1203,10 +1203,10 @@
       <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="3">
         <v>0.1</v>
       </c>
@@ -1223,10 +1223,10 @@
       <c r="A19" s="6">
         <v>3</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="7">
         <v>0.01</v>
       </c>
@@ -1243,10 +1243,10 @@
       <c r="A20" s="6">
         <v>4</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="7">
         <v>0.01</v>
       </c>
@@ -1263,10 +1263,10 @@
       <c r="A21" s="6">
         <v>5</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="7">
         <v>0.01</v>
       </c>
@@ -1283,10 +1283,10 @@
       <c r="A22" s="8">
         <v>6</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="7">
         <v>0.01</v>
       </c>
@@ -1303,10 +1303,10 @@
       <c r="A23" s="6">
         <v>7</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="47"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="7">
         <v>0.01</v>
       </c>
@@ -1323,10 +1323,10 @@
       <c r="A24" s="6">
         <v>8</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="47"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="7">
         <v>0.01</v>
       </c>
@@ -1343,10 +1343,10 @@
       <c r="A25" s="6">
         <v>9</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="47"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="7">
         <v>0.01</v>
       </c>
@@ -1363,10 +1363,10 @@
       <c r="A26" s="8">
         <v>10</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="7">
         <v>0.01</v>
       </c>
@@ -1383,10 +1383,10 @@
       <c r="A27" s="6">
         <v>11</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="47"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="7">
         <v>0.01</v>
       </c>
@@ -1403,10 +1403,10 @@
       <c r="A28" s="6">
         <v>12</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="47"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="7">
         <v>0.01</v>
       </c>
@@ -1423,10 +1423,10 @@
       <c r="A29" s="6">
         <v>13</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="47"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="7">
         <v>0.01</v>
       </c>
@@ -1443,10 +1443,10 @@
       <c r="A30" s="8">
         <v>14</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="47"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="7">
         <v>0.01</v>
       </c>
@@ -1463,10 +1463,10 @@
       <c r="A31" s="6">
         <v>15</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="47"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="7">
         <v>0.01</v>
       </c>
@@ -1483,10 +1483,10 @@
       <c r="A32" s="6">
         <v>16</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="47"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="7">
         <v>0.01</v>
       </c>
@@ -1503,10 +1503,10 @@
       <c r="A33" s="6">
         <v>17</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="47"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="7">
         <v>0.01</v>
       </c>
@@ -1523,10 +1523,10 @@
       <c r="A34" s="8">
         <v>18</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="47"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="7">
         <v>0.01</v>
       </c>
@@ -1543,10 +1543,10 @@
       <c r="A35" s="6">
         <v>19</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="47"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="7">
         <v>0.01</v>
       </c>
@@ -1563,10 +1563,10 @@
       <c r="A36" s="6">
         <v>20</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="47"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="7">
         <v>0.01</v>
       </c>
@@ -1583,10 +1583,10 @@
       <c r="A37" s="6">
         <v>21</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="47"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="7">
         <v>0.01</v>
       </c>
@@ -1603,10 +1603,10 @@
       <c r="A38" s="8">
         <v>22</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="47"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="7">
         <v>0.01</v>
       </c>
@@ -1623,10 +1623,10 @@
       <c r="A39" s="6">
         <v>23</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="47"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="7">
         <v>0.01</v>
       </c>
@@ -1643,10 +1643,10 @@
       <c r="A40" s="6">
         <v>24</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="47"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="7">
         <v>0.01</v>
       </c>
@@ -1663,10 +1663,10 @@
       <c r="A41" s="6">
         <v>25</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="47"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="7">
         <v>0.01</v>
       </c>
@@ -1683,10 +1683,10 @@
       <c r="A42" s="8">
         <v>26</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="47"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="7">
         <v>0.01</v>
       </c>
@@ -1703,10 +1703,10 @@
       <c r="A43" s="6">
         <v>27</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="47"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="7">
         <v>0.01</v>
       </c>
@@ -1723,10 +1723,10 @@
       <c r="A44" s="6">
         <v>28</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="47"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="7">
         <v>0.01</v>
       </c>
@@ -1743,10 +1743,10 @@
       <c r="A45" s="6">
         <v>33</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="45"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="7">
         <v>0.24</v>
       </c>
@@ -1763,10 +1763,10 @@
       <c r="A46" s="6">
         <v>34</v>
       </c>
-      <c r="B46" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="47"/>
+      <c r="B46" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="30"/>
       <c r="D46" s="7">
         <v>0.01</v>
       </c>
@@ -1783,10 +1783,10 @@
       <c r="A47" s="6">
         <v>35</v>
       </c>
-      <c r="B47" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="47"/>
+      <c r="B47" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="30"/>
       <c r="D47" s="7">
         <v>0.01</v>
       </c>
@@ -1803,10 +1803,10 @@
       <c r="A48" s="8">
         <v>36</v>
       </c>
-      <c r="B48" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="47"/>
+      <c r="B48" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="30"/>
       <c r="D48" s="7">
         <v>0.01</v>
       </c>
@@ -1823,10 +1823,10 @@
       <c r="A49" s="6">
         <v>37</v>
       </c>
-      <c r="B49" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="47"/>
+      <c r="B49" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="30"/>
       <c r="D49" s="7">
         <v>0.01</v>
       </c>
@@ -1843,10 +1843,10 @@
       <c r="A50" s="6">
         <v>38</v>
       </c>
-      <c r="B50" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="47"/>
+      <c r="B50" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="30"/>
       <c r="D50" s="7">
         <v>0.01</v>
       </c>
@@ -1863,10 +1863,10 @@
       <c r="A51" s="6">
         <v>39</v>
       </c>
-      <c r="B51" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="47"/>
+      <c r="B51" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="30"/>
       <c r="D51" s="7">
         <v>0.01</v>
       </c>
@@ -1883,10 +1883,10 @@
       <c r="A52" s="8">
         <v>40</v>
       </c>
-      <c r="B52" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="47"/>
+      <c r="B52" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="30"/>
       <c r="D52" s="7">
         <v>0.01</v>
       </c>
@@ -1903,10 +1903,10 @@
       <c r="A53" s="6">
         <v>41</v>
       </c>
-      <c r="B53" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="47"/>
+      <c r="B53" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="30"/>
       <c r="D53" s="7">
         <v>0.01</v>
       </c>
@@ -1923,10 +1923,10 @@
       <c r="A54" s="6">
         <v>42</v>
       </c>
-      <c r="B54" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="47"/>
+      <c r="B54" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="30"/>
       <c r="D54" s="7">
         <v>0.01</v>
       </c>
@@ -1943,10 +1943,10 @@
       <c r="A55" s="6">
         <v>43</v>
       </c>
-      <c r="B55" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="47"/>
+      <c r="B55" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="30"/>
       <c r="D55" s="7">
         <v>0.01</v>
       </c>
@@ -1963,10 +1963,10 @@
       <c r="A56" s="8">
         <v>44</v>
       </c>
-      <c r="B56" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="47"/>
+      <c r="B56" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="30"/>
       <c r="D56" s="7">
         <v>0.01</v>
       </c>
@@ -1983,10 +1983,10 @@
       <c r="A57" s="6">
         <v>45</v>
       </c>
-      <c r="B57" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="47"/>
+      <c r="B57" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="30"/>
       <c r="D57" s="7">
         <v>0.01</v>
       </c>
@@ -2003,10 +2003,10 @@
       <c r="A58" s="6">
         <v>46</v>
       </c>
-      <c r="B58" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="47"/>
+      <c r="B58" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="30"/>
       <c r="D58" s="7">
         <v>0.01</v>
       </c>
@@ -2023,10 +2023,10 @@
       <c r="A59" s="6">
         <v>47</v>
       </c>
-      <c r="B59" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="47"/>
+      <c r="B59" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="30"/>
       <c r="D59" s="7">
         <v>0.01</v>
       </c>
@@ -2043,10 +2043,10 @@
       <c r="A60" s="8">
         <v>48</v>
       </c>
-      <c r="B60" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="47"/>
+      <c r="B60" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="30"/>
       <c r="D60" s="7">
         <v>0.01</v>
       </c>
@@ -2063,10 +2063,10 @@
       <c r="A61" s="6">
         <v>49</v>
       </c>
-      <c r="B61" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="47"/>
+      <c r="B61" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="30"/>
       <c r="D61" s="7">
         <v>0.01</v>
       </c>
@@ -2083,10 +2083,10 @@
       <c r="A62" s="6">
         <v>50</v>
       </c>
-      <c r="B62" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="47"/>
+      <c r="B62" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="30"/>
       <c r="D62" s="7">
         <v>0.01</v>
       </c>
@@ -2103,10 +2103,10 @@
       <c r="A63" s="6">
         <v>51</v>
       </c>
-      <c r="B63" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="47"/>
+      <c r="B63" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="30"/>
       <c r="D63" s="7">
         <v>0.01</v>
       </c>
@@ -2123,10 +2123,10 @@
       <c r="A64" s="8">
         <v>52</v>
       </c>
-      <c r="B64" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="47"/>
+      <c r="B64" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="30"/>
       <c r="D64" s="7">
         <v>0.01</v>
       </c>
@@ -2143,10 +2143,10 @@
       <c r="A65" s="6">
         <v>53</v>
       </c>
-      <c r="B65" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="47"/>
+      <c r="B65" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="30"/>
       <c r="D65" s="7">
         <v>0.01</v>
       </c>
@@ -2163,10 +2163,10 @@
       <c r="A66" s="6">
         <v>54</v>
       </c>
-      <c r="B66" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="47"/>
+      <c r="B66" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="30"/>
       <c r="D66" s="7">
         <v>0.01</v>
       </c>
@@ -2183,10 +2183,10 @@
       <c r="A67" s="6">
         <v>55</v>
       </c>
-      <c r="B67" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="47"/>
+      <c r="B67" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="30"/>
       <c r="D67" s="7">
         <v>0.01</v>
       </c>
@@ -2203,10 +2203,10 @@
       <c r="A68" s="8">
         <v>56</v>
       </c>
-      <c r="B68" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="47"/>
+      <c r="B68" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="30"/>
       <c r="D68" s="7">
         <v>0.01</v>
       </c>
@@ -2223,10 +2223,10 @@
       <c r="A69" s="6">
         <v>57</v>
       </c>
-      <c r="B69" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="47"/>
+      <c r="B69" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="30"/>
       <c r="D69" s="7">
         <v>0.01</v>
       </c>
@@ -2243,10 +2243,10 @@
       <c r="A70" s="6">
         <v>58</v>
       </c>
-      <c r="B70" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="47"/>
+      <c r="B70" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="30"/>
       <c r="D70" s="7">
         <v>0.01</v>
       </c>
@@ -2263,10 +2263,10 @@
       <c r="A71" s="6">
         <v>59</v>
       </c>
-      <c r="B71" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="47"/>
+      <c r="B71" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="30"/>
       <c r="D71" s="7">
         <v>0.01</v>
       </c>
@@ -2283,10 +2283,10 @@
       <c r="A72" s="8">
         <v>60</v>
       </c>
-      <c r="B72" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="47"/>
+      <c r="B72" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="30"/>
       <c r="D72" s="7">
         <v>0.01</v>
       </c>
@@ -2303,10 +2303,10 @@
       <c r="A73" s="6">
         <v>61</v>
       </c>
-      <c r="B73" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="47"/>
+      <c r="B73" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="30"/>
       <c r="D73" s="7">
         <v>0.01</v>
       </c>
@@ -2323,10 +2323,10 @@
       <c r="A74" s="6">
         <v>62</v>
       </c>
-      <c r="B74" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="47"/>
+      <c r="B74" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="30"/>
       <c r="D74" s="7">
         <v>0.01</v>
       </c>
@@ -2343,10 +2343,10 @@
       <c r="A75" s="6">
         <v>63</v>
       </c>
-      <c r="B75" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="47"/>
+      <c r="B75" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="30"/>
       <c r="D75" s="7">
         <v>0.01</v>
       </c>
@@ -2360,68 +2360,68 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="48"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="9"/>
       <c r="D76" s="11">
         <f>SUM(D17:D75)</f>
         <v>1.0000000000000004</v>
       </c>
-      <c r="E76" s="24">
+      <c r="E76" s="42">
         <f>SUM(E17:E75)</f>
         <v>0</v>
       </c>
-      <c r="F76" s="25"/>
+      <c r="F76" s="43"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="49" t="s">
+      <c r="A78" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="50"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="47"/>
     </row>
     <row r="79" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="51" t="s">
+      <c r="A79" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="51"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="26">
+      <c r="D79" s="45">
         <f>E76</f>
         <v>0</v>
       </c>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
     </row>
     <row r="80" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" s="44"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="45">
+        <f>D79*4%</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+    </row>
+    <row r="81" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B80" s="51"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="26">
-        <f>D79*4%</f>
-        <v>0</v>
-      </c>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-    </row>
-    <row r="81" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" s="51"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="26">
+      <c r="D81" s="45">
         <v>4200</v>
       </c>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
     </row>
     <row r="82" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
@@ -2562,33 +2562,95 @@
       <c r="F115" s="17"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="22" t="s">
+      <c r="A116" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="22"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="39"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="C5:E7"/>
+    <mergeCell ref="A116:F118"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -2605,68 +2667,6 @@
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="C5:E7"/>
-    <mergeCell ref="A116:F118"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
